--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll1-Notch3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.190862666666667</v>
+        <v>10.12586833333333</v>
       </c>
       <c r="H2">
-        <v>15.572588</v>
+        <v>30.377605</v>
       </c>
       <c r="I2">
-        <v>0.8740249884703439</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="J2">
-        <v>0.8740249884703438</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N2">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O2">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P2">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q2">
-        <v>25.16269985551644</v>
+        <v>75.06894170921224</v>
       </c>
       <c r="R2">
-        <v>226.464298699648</v>
+        <v>675.6204753829101</v>
       </c>
       <c r="S2">
-        <v>0.02972272038697085</v>
+        <v>0.04757380422675727</v>
       </c>
       <c r="T2">
-        <v>0.02972272038697085</v>
+        <v>0.04757380422675727</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.190862666666667</v>
+        <v>10.12586833333333</v>
       </c>
       <c r="H3">
-        <v>15.572588</v>
+        <v>30.377605</v>
       </c>
       <c r="I3">
-        <v>0.8740249884703439</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="J3">
-        <v>0.8740249884703438</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.88128</v>
       </c>
       <c r="O3">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P3">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q3">
-        <v>8.446018039182224</v>
+        <v>16.47573285937778</v>
       </c>
       <c r="R3">
-        <v>76.01416235264001</v>
+        <v>148.2815957344</v>
       </c>
       <c r="S3">
-        <v>0.009976617533229034</v>
+        <v>0.01044124602929101</v>
       </c>
       <c r="T3">
-        <v>0.009976617533229032</v>
+        <v>0.01044124602929101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.190862666666667</v>
+        <v>10.12586833333333</v>
       </c>
       <c r="H4">
-        <v>15.572588</v>
+        <v>30.377605</v>
       </c>
       <c r="I4">
-        <v>0.8740249884703439</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="J4">
-        <v>0.8740249884703438</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>408.212212</v>
       </c>
       <c r="O4">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P4">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q4">
-        <v>706.3245104494063</v>
+        <v>1377.834370256918</v>
       </c>
       <c r="R4">
-        <v>6356.920594044657</v>
+        <v>12400.50933231226</v>
       </c>
       <c r="S4">
-        <v>0.8343256505501441</v>
+        <v>0.873181652692142</v>
       </c>
       <c r="T4">
-        <v>0.834325650550144</v>
+        <v>0.873181652692142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.302988</v>
       </c>
       <c r="I5">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293732</v>
       </c>
       <c r="J5">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293733</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N5">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O5">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P5">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q5">
-        <v>0.4895779753386668</v>
+        <v>0.7487419930106667</v>
       </c>
       <c r="R5">
-        <v>4.406201778048001</v>
+        <v>6.738677937096</v>
       </c>
       <c r="S5">
-        <v>0.0005782999977015719</v>
+        <v>0.00047450389176687</v>
       </c>
       <c r="T5">
-        <v>0.0005782999977015718</v>
+        <v>0.00047450389176687</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.302988</v>
       </c>
       <c r="I6">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293732</v>
       </c>
       <c r="J6">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293733</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>4.88128</v>
       </c>
       <c r="O6">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P6">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q6">
-        <v>0.1643299182933334</v>
+        <v>0.1643299182933333</v>
       </c>
       <c r="R6">
         <v>1.47896926464</v>
       </c>
       <c r="S6">
-        <v>0.00019411002160707</v>
+        <v>0.0001041415954919034</v>
       </c>
       <c r="T6">
-        <v>0.0001941100216070699</v>
+        <v>0.0001041415954919034</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.302988</v>
       </c>
       <c r="I7">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293732</v>
       </c>
       <c r="J7">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293733</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>408.212212</v>
       </c>
       <c r="O7">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P7">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q7">
-        <v>13.74260018771734</v>
+        <v>13.74260018771733</v>
       </c>
       <c r="R7">
         <v>123.683401689456</v>
       </c>
       <c r="S7">
-        <v>0.01623305388987926</v>
+        <v>0.008709164616034958</v>
       </c>
       <c r="T7">
-        <v>0.01623305388987925</v>
+        <v>0.008709164616034959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.941521</v>
       </c>
       <c r="I8">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851595</v>
       </c>
       <c r="J8">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851596</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N8">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O8">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P8">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q8">
-        <v>3.137173486268444</v>
+        <v>4.797874183175778</v>
       </c>
       <c r="R8">
-        <v>28.234561376416</v>
+        <v>43.180867648582</v>
       </c>
       <c r="S8">
-        <v>0.00370569656170394</v>
+        <v>0.003040580057451468</v>
       </c>
       <c r="T8">
-        <v>0.003705696561703939</v>
+        <v>0.003040580057451468</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.941521</v>
       </c>
       <c r="I9">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851595</v>
       </c>
       <c r="J9">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851596</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.88128</v>
       </c>
       <c r="O9">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P9">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q9">
         <v>1.053011958542222</v>
@@ -1004,10 +1004,10 @@
         <v>9.477107626880001</v>
       </c>
       <c r="S9">
-        <v>0.001243840294865077</v>
+        <v>0.0006673303715692894</v>
       </c>
       <c r="T9">
-        <v>0.001243840294865077</v>
+        <v>0.0006673303715692894</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.941521</v>
       </c>
       <c r="I10">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851595</v>
       </c>
       <c r="J10">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851596</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>408.212212</v>
       </c>
       <c r="O10">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P10">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q10">
         <v>88.06139800605023</v>
       </c>
       <c r="R10">
-        <v>792.5525820544519</v>
+        <v>792.552582054452</v>
       </c>
       <c r="S10">
-        <v>0.1040200107638991</v>
+        <v>0.05580757651949519</v>
       </c>
       <c r="T10">
-        <v>0.1040200107638991</v>
+        <v>0.0558075765194952</v>
       </c>
     </row>
   </sheetData>
